--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1549052.477694439</v>
+        <v>1653286.186087884</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10416354.79975671</v>
+        <v>10425267.69100832</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074482967</v>
+        <v>132.6398674219785</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>90.27963139156388</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>90.24541464553175</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>71.52923230912258</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>215.8536526006918</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>85.09628919973932</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>209.5410375390711</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>118.5482349853165</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>214.6649597713326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>161.7889189752538</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>20.8490124554977</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>245.879692121443</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>34.56584948763766</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>11.56087338713365</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>125.8152577453153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>55.52079624060555</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673027</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3035,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.7122866515467</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>191.6604102493273</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>125.2193560244676</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422912</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>20.88994825141578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410134</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>44.7513807668926</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408066</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>164.3593773323622</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>25.73194049497408</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>1382.349898862468</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.50962791956</v>
+        <v>1382.349898862468</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1768.949738926589</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>590.2049751143504</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>884.9085321458222</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>1491.035964934734</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>1322.099782006827</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>1230.908235146662</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>2459.755921915738</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T4" t="n">
-        <v>1644.451679424883</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="U4" t="n">
-        <v>1644.451679424883</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="V4" t="n">
-        <v>1644.451679424883</v>
+        <v>2008.442685869712</v>
       </c>
       <c r="W4" t="n">
-        <v>1355.034509387922</v>
+        <v>1719.025515832752</v>
       </c>
       <c r="X4" t="n">
-        <v>1127.044958489905</v>
+        <v>1491.035964934734</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>1491.035964934734</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1734.047335491682</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1365.084818551271</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1006.81911994452</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2791.303412994536</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792696</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="X5" t="n">
-        <v>2510.786507531616</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>2120.647175555804</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.7936412903424</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1434.120592997017</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1434.120592997017</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1434.120592997017</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1144.703422960057</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641123</v>
+        <v>1144.703422960057</v>
       </c>
       <c r="Y7" t="n">
-        <v>431.4421061205821</v>
+        <v>923.9108438165264</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>601.3302584915471</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>186.2578083365435</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4811,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609172</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>3108.772528910857</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218345</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1674.040940365967</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1452.274324935493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1163.171458061136</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>908.4869698552495</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>619.069799818289</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X10" t="n">
-        <v>619.069799818289</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.2772206747588</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,67 +5175,67 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.097755135313</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
         <v>1729.097755135313</v>
@@ -5258,25 +5260,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,25 +5287,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>584.5295404712665</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>584.5295404712665</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>437.6395929733561</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>270.4434936882361</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>128.7316625304342</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>247.2061440917674</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>105.4943129339655</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6066,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>2951.54259528685</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>2782.606412358944</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>2632.489772946608</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>2484.576679364215</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>4634.751540034345</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>4415.150075057287</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>4126.074848401485</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>3871.390360195598</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>3581.973190158637</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>3353.98363926062</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>3133.19106011709</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2815.530845237133</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2646.594662309226</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2646.594662309226</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>3990.063098351768</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>3735.378610145881</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3445.96144010892</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3217.971889210903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>2997.179310067373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6445,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,7 +6469,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6482,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6552,16 +6554,16 @@
         <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>2333.297989183966</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.222762528164</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.538274322277</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.10824923516</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258101</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602299</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396412</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359451</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614341</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317904</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6926,34 +6928,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.955258982919</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>889.0190760550122</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>738.9024366426764</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>590.9893430602833</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>444.0993955623729</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854706</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.396302956689</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>1239.603723813159</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>2804.65264778894</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>2635.716464861033</v>
       </c>
       <c r="D40" t="n">
-        <v>323.8164599824514</v>
+        <v>2485.599825448698</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>3979.184900903575</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3724.500412697688</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3435.083242660728</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3207.09369176271</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>2986.30111261918</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300425</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926977</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N42" t="n">
-        <v>4033.948342528643</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.5507239167111</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2401.759668664207</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1120.991767890481</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.1991887469509</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7780,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.8888553856862</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>639.9526724577793</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>489.8360330454435</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>341.9229394630504</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>341.9229394630504</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7837,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159259</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.743458178065</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>40.3047822678011</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.69998683092785</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>69.70496293143188</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>55.21102825632927</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>125.505489761039</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194143</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409392964</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.11969353039061</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>25.74504007796097</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>40.30478226780124</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>39.70888054695297</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823074</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>136.274905234752</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.164760959906658</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>226.4057028288539</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>912295.1063258967</v>
+        <v>921207.9975775029</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
@@ -26326,28 +26328,28 @@
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121056</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605433</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312015</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312008</v>
+        <v>89134.17909312026</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26445,19 +26447,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768896</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-992135.7149703219</v>
+        <v>-811942.8160112023</v>
       </c>
       <c r="C6" t="n">
-        <v>336609.0307572709</v>
+        <v>133170.2891451649</v>
       </c>
       <c r="D6" t="n">
         <v>336609.0307572709</v>
       </c>
       <c r="E6" t="n">
-        <v>88163.15384547311</v>
+        <v>88163.15384547182</v>
       </c>
       <c r="F6" t="n">
-        <v>413575.615652828</v>
+        <v>413575.6156528281</v>
       </c>
       <c r="G6" t="n">
-        <v>413575.6156528282</v>
+        <v>413575.6156528283</v>
       </c>
       <c r="H6" t="n">
         <v>413575.615652828</v>
       </c>
       <c r="I6" t="n">
-        <v>413575.6156528278</v>
+        <v>413575.6156528281</v>
       </c>
       <c r="J6" t="n">
-        <v>196044.4132555505</v>
+        <v>245970.4378428454</v>
       </c>
       <c r="K6" t="n">
+        <v>364465.5229467737</v>
+      </c>
+      <c r="L6" t="n">
+        <v>413575.6156528277</v>
+      </c>
+      <c r="M6" t="n">
+        <v>328520.5877173156</v>
+      </c>
+      <c r="N6" t="n">
         <v>413575.6156528281</v>
-      </c>
-      <c r="L6" t="n">
-        <v>413575.615652828</v>
-      </c>
-      <c r="M6" t="n">
-        <v>328520.5877173163</v>
-      </c>
-      <c r="N6" t="n">
-        <v>413575.6156528278</v>
       </c>
       <c r="O6" t="n">
         <v>413575.6156528278</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758533</v>
+        <v>222.0431741987044</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>58.33584162664847</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.3035346306374</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>310.4011377631392</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>111.8986058694431</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>82.15053189888852</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>10.00791173709806</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>176.0595294020039</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>134.5760089460804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>27.98010635618812</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>265.6739858810933</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>237.3557891543616</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447126</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,10 +32320,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32482,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32549,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32731,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32786,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,22 +33022,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33272,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>730.8697159579442</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>359.709698549663</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753705</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>355.3309544215498</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>94.75954470991714</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648384</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899027</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>588.7356820359258</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3679864663297</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533522</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653286.186087884</v>
+        <v>1649232.060328505</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>132.6398674219785</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>390.5825685688681</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>90.27963139156388</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -870,19 +870,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>55.94174219837174</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>215.8536526006918</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>233.6829599607956</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>209.5410375390711</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.02719212039518</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>118.5482349853165</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>108.9812949757267</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W10" t="n">
-        <v>20.8490124554977</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>138.2893995353463</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.56584948763766</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161913103</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>55.52079624060555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>2.445727774093648</v>
       </c>
     </row>
     <row r="26">
@@ -2611,10 +2611,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.9742741983392</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>191.6604102493273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>246.4755938422912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>239.7247859410134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>179.2499669408066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
-        <v>25.73194049497408</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1382.349898862468</v>
+        <v>904.8820361188232</v>
       </c>
       <c r="C2" t="n">
-        <v>1382.349898862468</v>
+        <v>904.8820361188232</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>904.8820361188232</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>519.0937835205789</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>512.1482827713754</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.949738926589</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1768.949738926589</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1768.949738926589</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143504</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458222</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1491.035964934734</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="C4" t="n">
-        <v>1322.099782006827</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="D4" t="n">
-        <v>1230.908235146662</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>1082.995141564269</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.995141564269</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564269</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564269</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936619</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915738</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075599</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2263.127174075599</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>2008.442685869712</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="W4" t="n">
-        <v>1719.025515832752</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="X4" t="n">
-        <v>1491.035964934734</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="Y4" t="n">
-        <v>1491.035964934734</v>
+        <v>768.6303371471284</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939507</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2791.303412994536</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2438.534757724422</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>2394.678395166737</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>2004.539063190925</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,7 +4661,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
         <v>2407.41198488674</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4731,46 +4731,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1434.120592997017</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1434.120592997017</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1434.120592997017</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1144.703422960057</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1144.703422960057</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>923.9108438165264</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221566</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.316163281155</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1012.316163281155</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>601.3302584915471</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>186.2578083365435</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218339</v>
@@ -4807,10 +4807,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218339</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468473</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,19 +5293,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438167</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>734.6461798836023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>584.5295404712665</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>584.5295404712665</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>437.6395929733561</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>270.4434936882361</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>128.7316625304342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.294644713842</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2951.54259528685</v>
+        <v>951.7772127656161</v>
       </c>
       <c r="C25" t="n">
-        <v>2782.606412358944</v>
+        <v>782.8410298377092</v>
       </c>
       <c r="D25" t="n">
-        <v>2632.489772946608</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E25" t="n">
-        <v>2484.576679364215</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4634.751540034345</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4415.150075057287</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>4126.074848401485</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>3871.390360195598</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>3581.973190158637</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>3353.98363926062</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>3133.19106011709</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6311,22 +6311,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6469,7 +6469,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558404</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630497</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218161</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2438.670847218161</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2438.670847218161</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866303</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430191</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532174</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388644</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,16 +6791,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,28 +6934,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,16 +7265,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2804.65264778894</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2635.716464861033</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2485.599825448698</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3979.184900903575</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3724.500412697688</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3435.083242660728</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3207.09369176271</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>2986.30111261918</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.743458178065</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.4490126143847</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>28.95742156328149</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>46.69998683092785</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>80.44045370237421</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>216.1389255780011</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409392964</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>25.74504007796097</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>46.45968844823074</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
-        <v>226.4057028288539</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117838</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.150411784</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117841</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26368,37 +26368,37 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121056</v>
+        <v>203438.7416121053</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605433</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551207</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312024</v>
+        <v>89134.1790931203</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312026</v>
@@ -26447,7 +26447,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811942.8160112023</v>
+        <v>-811942.8160112024</v>
       </c>
       <c r="C6" t="n">
-        <v>133170.2891451649</v>
+        <v>133170.289145165</v>
       </c>
       <c r="D6" t="n">
-        <v>336609.0307572709</v>
+        <v>336609.0307572705</v>
       </c>
       <c r="E6" t="n">
-        <v>88163.15384547182</v>
+        <v>87815.77459111559</v>
       </c>
       <c r="F6" t="n">
-        <v>413575.6156528281</v>
+        <v>413228.2363984709</v>
       </c>
       <c r="G6" t="n">
-        <v>413575.6156528283</v>
+        <v>413228.2363984706</v>
       </c>
       <c r="H6" t="n">
-        <v>413575.615652828</v>
+        <v>413228.2363984709</v>
       </c>
       <c r="I6" t="n">
-        <v>413575.6156528281</v>
+        <v>413228.2363984711</v>
       </c>
       <c r="J6" t="n">
-        <v>245970.4378428454</v>
+        <v>245623.0585884885</v>
       </c>
       <c r="K6" t="n">
-        <v>364465.5229467737</v>
+        <v>364118.1436924165</v>
       </c>
       <c r="L6" t="n">
-        <v>413575.6156528277</v>
+        <v>413228.236398471</v>
       </c>
       <c r="M6" t="n">
-        <v>328520.5877173156</v>
+        <v>328173.208462959</v>
       </c>
       <c r="N6" t="n">
-        <v>413575.6156528281</v>
+        <v>413228.236398471</v>
       </c>
       <c r="O6" t="n">
-        <v>413575.6156528278</v>
+        <v>413228.236398471</v>
       </c>
       <c r="P6" t="n">
-        <v>413575.6156528278</v>
+        <v>413228.2363984709</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757585</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>222.0431741987044</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.96513420408587</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33584162664847</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>196.1959011254563</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>111.8986058694431</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>136.0481407176735</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>10.00791173709806</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034328</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>176.0595294020039</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>277.2566436803269</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W10" t="n">
-        <v>265.6739858810933</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>237.3557891543616</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>579.5299594447126</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33031,25 +33031,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>730.8697159579442</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321073</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215498</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>521.8736946105078</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>94.75954470991714</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>440.9755796648384</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>588.7356820359258</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876629</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1649232.060328505</v>
+        <v>1650992.590631292</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>390.5825685688681</v>
+        <v>344.2961577767419</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>55.85220323357273</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>55.94174219837174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886412</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>233.6829599607956</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039518</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>298.730729942234</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.9812949757267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347168</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.2893995353463</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>62.18842302760095</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="17">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8253826161913103</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.445727774093648</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>179.6926686226135</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>904.8820361188232</v>
+        <v>472.3398332255019</v>
       </c>
       <c r="C2" t="n">
-        <v>904.8820361188232</v>
+        <v>472.3398332255019</v>
       </c>
       <c r="D2" t="n">
-        <v>904.8820361188232</v>
+        <v>472.3398332255019</v>
       </c>
       <c r="E2" t="n">
-        <v>519.0937835205789</v>
+        <v>472.3398332255019</v>
       </c>
       <c r="F2" t="n">
-        <v>512.1482827713754</v>
+        <v>465.3943324762984</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1249.079005265435</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>858.9396732896237</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2362.930966067699</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>768.6303371471284</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="C4" t="n">
-        <v>768.6303371471284</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>422.5395656602336</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>275.6496181623232</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>107.6631534706018</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>107.6631534706018</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>768.6303371471284</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>768.6303371471284</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X4" t="n">
-        <v>768.6303371471284</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y4" t="n">
-        <v>768.6303371471284</v>
+        <v>570.4526592426267</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2394.678395166737</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190925</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4713,52 +4713,52 @@
         <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
         <v>1914.135768168901</v>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4804,13 +4804,13 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875185</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C10" t="n">
         <v>679.1346335501037</v>
@@ -4965,13 +4965,13 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474266</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474266</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474266</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G22" t="n">
-        <v>94.65038286230657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>94.65038286230657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656161</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253735</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6457,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.4490126143847</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>84.9418658837474</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.95742156328149</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>84.24553961896822</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>80.44045370237421</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.1389255780011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>38.89198472948132</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>26.01259675821728</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117838</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121053</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605454</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931203</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312026</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811942.8160112024</v>
+        <v>-811942.8160112018</v>
       </c>
       <c r="C6" t="n">
-        <v>133170.289145165</v>
+        <v>133170.2891451649</v>
       </c>
       <c r="D6" t="n">
-        <v>336609.0307572705</v>
+        <v>336609.030757271</v>
       </c>
       <c r="E6" t="n">
-        <v>87815.77459111559</v>
+        <v>88128.415920037</v>
       </c>
       <c r="F6" t="n">
-        <v>413228.2363984709</v>
+        <v>413540.8777273922</v>
       </c>
       <c r="G6" t="n">
-        <v>413228.2363984706</v>
+        <v>413540.8777273918</v>
       </c>
       <c r="H6" t="n">
-        <v>413228.2363984709</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="I6" t="n">
-        <v>413228.2363984711</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="J6" t="n">
-        <v>245623.0585884885</v>
+        <v>245935.6999174099</v>
       </c>
       <c r="K6" t="n">
-        <v>364118.1436924165</v>
+        <v>364430.7850213376</v>
       </c>
       <c r="L6" t="n">
-        <v>413228.236398471</v>
+        <v>413540.8777273922</v>
       </c>
       <c r="M6" t="n">
-        <v>328173.208462959</v>
+        <v>328485.8497918804</v>
       </c>
       <c r="N6" t="n">
-        <v>413228.236398471</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="O6" t="n">
-        <v>413228.236398471</v>
+        <v>413540.8777273922</v>
       </c>
       <c r="P6" t="n">
-        <v>413228.2363984709</v>
+        <v>413540.8777273922</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022924</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757585</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27029,16 +27029,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27260,7 +27260,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>20.96513420408587</v>
+        <v>67.25154499621209</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>48.94439197032785</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>196.1959011254563</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>100.0350347748393</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>136.0481407176735</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034328</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>71.00037073623503</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.2566436803269</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>213.3204533960962</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911122</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>521.8736946105078</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>201.4225882146019</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
